--- a/classification/droptc/modern-bert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9926087260246277</v>
+        <v>0.999477207660675</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9820258021354675</v>
+        <v>0.9929695725440979</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99834144115448</v>
+        <v>0.9244096279144287</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6686776876449585</v>
+        <v>0.9985131621360779</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9880977272987366</v>
+        <v>0.998969554901123</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9989369511604309</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.927711546421051</v>
+        <v>0.999395489692688</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9987748265266418</v>
+        <v>0.9961276650428772</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9995896220207214</v>
+        <v>0.9976648092269897</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9966457486152649</v>
+        <v>0.9875097274780273</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9931636452674866</v>
+        <v>0.999355137348175</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996531009674072</v>
+        <v>0.9994021654129028</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995492100715637</v>
+        <v>0.4943240582942963</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9847816228866577</v>
+        <v>0.9908491373062134</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9162282943725586</v>
+        <v>0.9141604900360107</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9987748265266418</v>
+        <v>0.9993877410888672</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9860391616821289</v>
+        <v>0.9971277117729187</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999524712562561</v>
+        <v>0.9985131621360779</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9911757707595825</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9994586110115051</v>
+        <v>0.9995182752609253</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9709888696670532</v>
+        <v>0.9953429698944092</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9959208965301514</v>
+        <v>0.9990925788879395</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9967189431190491</v>
+        <v>0.9993454813957214</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9818945527076721</v>
+        <v>0.9994520545005798</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9847816228866577</v>
+        <v>0.9593665599822998</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9988052845001221</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9997019171714783</v>
+        <v>0.9971101880073547</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.997265100479126</v>
+        <v>0.9989872574806213</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6249994039535522</v>
+        <v>0.9991722106933594</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9990704655647278</v>
+        <v>0.9836375713348389</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996407032012939</v>
+        <v>0.9957854151725769</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.999659538269043</v>
+        <v>0.6617817878723145</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9988963603973389</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9983591437339783</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9981516003608704</v>
+        <v>0.9995381832122803</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9314076900482178</v>
+        <v>0.7407805919647217</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9895631670951843</v>
+        <v>0.999542236328125</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9995225667953491</v>
+        <v>0.9995542168617249</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9983615279197693</v>
+        <v>0.9865462779998779</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9923852682113647</v>
+        <v>0.6948911547660828</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8520853519439697</v>
+        <v>0.9990365505218506</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9995039701461792</v>
+        <v>0.9995781779289246</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9090149402618408</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9061626791954041</v>
+        <v>0.9990000128746033</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9996046423912048</v>
+        <v>0.9995718598365784</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9977927207946777</v>
+        <v>0.9472441673278809</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9996174573898315</v>
+        <v>0.9994957447052002</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9921405911445618</v>
+        <v>0.9992091059684753</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9988671541213989</v>
+        <v>0.9990610480308533</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9982739686965942</v>
+        <v>0.9976992011070251</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9993163347244263</v>
+        <v>0.979764997959137</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4958116710186005</v>
+        <v>0.9909541010856628</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9992609620094299</v>
+        <v>0.999222993850708</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9940465688705444</v>
+        <v>0.6115413904190063</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.988134503364563</v>
+        <v>0.9963611960411072</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9987823367118835</v>
+        <v>0.9891479015350342</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9543757438659668</v>
+        <v>0.9902964234352112</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9990911483764648</v>
+        <v>0.9901341795921326</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9847816228866577</v>
+        <v>0.9986926913261414</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9952957034111023</v>
+        <v>0.9994792342185974</v>
       </c>
     </row>
     <row r="62">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.997783362865448</v>
+        <v>0.8643456101417542</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9992604851722717</v>
+        <v>0.9990379810333252</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.997265100479126</v>
+        <v>0.9963465332984924</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9935010075569153</v>
+        <v>0.9995335340499878</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9991546869277954</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9996106028556824</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9348243474960327</v>
+        <v>0.9933813810348511</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9996635913848877</v>
+        <v>0.9995170831680298</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9998431205749512</v>
+        <v>0.9870405793190002</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9989125728607178</v>
+        <v>0.9993293285369873</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9949780106544495</v>
+        <v>0.9959976673126221</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9991790652275085</v>
+        <v>0.996832549571991</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9380348324775696</v>
+        <v>0.9991269707679749</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9997854828834534</v>
+        <v>0.9837386608123779</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.999643087387085</v>
+        <v>0.9993522763252258</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9996578693389893</v>
+        <v>0.8380064368247986</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9993769526481628</v>
+        <v>0.9992544054985046</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9996992349624634</v>
+        <v>0.9992075562477112</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.999483585357666</v>
+        <v>0.9957854151725769</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996964931488037</v>
+        <v>0.9993414282798767</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9992127418518066</v>
+        <v>0.9957854151725769</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9955223798751831</v>
+        <v>0.9865083694458008</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8531337976455688</v>
+        <v>0.9993149042129517</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9875730276107788</v>
+        <v>0.9909981489181519</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9986610412597656</v>
+        <v>0.9969801306724548</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9965032339096069</v>
+        <v>0.9994687438011169</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.997763991355896</v>
+        <v>0.9921513795852661</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9940656423568726</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9979950189590454</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.999822199344635</v>
+        <v>0.9880544543266296</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8852472901344299</v>
+        <v>0.9763809442520142</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9982560276985168</v>
+        <v>0.9379522800445557</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9997498393058777</v>
+        <v>0.9993020296096802</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9994463324546814</v>
+        <v>0.9950284361839294</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9979680180549622</v>
+        <v>0.9479919075965881</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9948514103889465</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9990704655647278</v>
+        <v>0.8353243470191956</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9987480640411377</v>
+        <v>0.9961276650428772</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.999663233757019</v>
+        <v>0.9903333783149719</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.881620466709137</v>
+        <v>0.9880544543266296</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9997318387031555</v>
+        <v>0.9992658495903015</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9788084030151367</v>
+        <v>0.9992809891700745</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9982914328575134</v>
+        <v>0.997322142124176</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9993079900741577</v>
+        <v>0.9980528354644775</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9995725750923157</v>
+        <v>0.9992142915725708</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9993740916252136</v>
+        <v>0.9995405673980713</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9922472238540649</v>
+        <v>0.9995354413986206</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9921405911445618</v>
+        <v>0.9743971824645996</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8379276990890503</v>
+        <v>0.9994334578514099</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9992027878761292</v>
+        <v>0.9996008276939392</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9933831095695496</v>
+        <v>0.9921372532844543</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.503607451915741</v>
+        <v>0.9909981489181519</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9562963843345642</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9996492862701416</v>
+        <v>0.9995028972625732</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9993174076080322</v>
+        <v>0.9909981489181519</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9700774550437927</v>
+        <v>0.999417781829834</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9908341765403748</v>
+        <v>0.9993361830711365</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9994549155235291</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9997759461402893</v>
+        <v>0.9303330779075623</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9930304884910583</v>
+        <v>0.9991023540496826</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9987824559211731</v>
+        <v>0.9989011287689209</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9993475079536438</v>
+        <v>0.9585024118423462</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.99244225025177</v>
+        <v>0.9898666143417358</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7458729147911072</v>
+        <v>0.9991660118103027</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9940656423568726</v>
+        <v>0.999276340007782</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9996722936630249</v>
+        <v>0.9993956089019775</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9845698475837708</v>
+        <v>0.9987152814865112</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9540998339653015</v>
+        <v>0.9972568154335022</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9837568998336792</v>
+        <v>0.9995296001434326</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9995588660240173</v>
+        <v>0.9992075562477112</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9993071556091309</v>
+        <v>0.9950259327888489</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9987044334411621</v>
+        <v>0.9994114637374878</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9995471835136414</v>
+        <v>0.9718396663665771</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9837568998336792</v>
+        <v>0.9989961981773376</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7561396360397339</v>
+        <v>0.9985248446464539</v>
       </c>
     </row>
     <row r="138">
@@ -4291,14 +4291,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9990687966346741</v>
+        <v>0.9721378684043884</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9996166229248047</v>
+        <v>0.9992119073867798</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9544945955276489</v>
+        <v>0.991722047328949</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9997549653053284</v>
+        <v>0.9967664480209351</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9989159107208252</v>
+        <v>0.4755876958370209</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9422581791877747</v>
+        <v>0.9995489716529846</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9997125267982483</v>
+        <v>0.9892422556877136</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.992016077041626</v>
+        <v>0.9882062077522278</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9188284873962402</v>
+        <v>0.9923989176750183</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9940308928489685</v>
+        <v>0.998714804649353</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8911087512969971</v>
+        <v>0.9993454813957214</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9970738887786865</v>
+        <v>0.8156406283378601</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9919400811195374</v>
+        <v>0.9995244741439819</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9991403818130493</v>
+        <v>0.9991644620895386</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997865557670593</v>
+        <v>0.9961276650428772</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996435642242432</v>
+        <v>0.9967051148414612</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8671925067901611</v>
+        <v>0.999177873134613</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9693491458892822</v>
+        <v>0.5111286640167236</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6247879266738892</v>
+        <v>0.9994188547134399</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999661922454834</v>
+        <v>0.9995197057723999</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9877287149429321</v>
+        <v>0.9943829774856567</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9963873624801636</v>
+        <v>0.9987301230430603</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994490742683411</v>
+        <v>0.9881969094276428</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9990116357803345</v>
+        <v>0.9882062077522278</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9986263513565063</v>
+        <v>0.9993584752082825</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9980754852294922</v>
+        <v>0.9994980096817017</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996374845504761</v>
+        <v>0.9965934157371521</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9935177564620972</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.998719334602356</v>
+        <v>0.9994022846221924</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996347427368164</v>
+        <v>0.9992656111717224</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9759610891342163</v>
+        <v>0.9983286261558533</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9982268214225769</v>
+        <v>0.9898666143417358</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9162282943725586</v>
+        <v>0.8019681572914124</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9950942993164062</v>
+        <v>0.9990426898002625</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9982568621635437</v>
+        <v>0.9992049336433411</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8169829845428467</v>
+        <v>0.9851705431938171</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9994650483131409</v>
+        <v>0.9995353221893311</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9963101744651794</v>
+        <v>0.9992386102676392</v>
       </c>
     </row>
     <row r="176">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8715736865997314</v>
+        <v>0.9963473677635193</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9996820688247681</v>
+        <v>0.9988017082214355</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.999524712562561</v>
+        <v>0.9909541010856628</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9981361627578735</v>
+        <v>0.9932557344436646</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9934617280960083</v>
+        <v>0.9990235567092896</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9990463852882385</v>
+        <v>0.9995245933532715</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9954708814620972</v>
+        <v>0.9992656111717224</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9646549820899963</v>
+        <v>0.9988167285919189</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9933831095695496</v>
+        <v>0.9995611310005188</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9997851252555847</v>
+        <v>0.9994797110557556</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9980190992355347</v>
+        <v>0.9700337052345276</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9987003803253174</v>
+        <v>0.9992154836654663</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9993630051612854</v>
+        <v>0.9928985834121704</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9933831095695496</v>
+        <v>0.99859219789505</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9817788600921631</v>
+        <v>0.9318490028381348</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9997463822364807</v>
+        <v>0.9313136339187622</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9964014291763306</v>
+        <v>0.9537745118141174</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9987226128578186</v>
+        <v>0.9991546869277954</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9940656423568726</v>
+        <v>0.9992803931236267</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9983031749725342</v>
+        <v>0.9946921467781067</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9995571970939636</v>
+        <v>0.9850030541419983</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9982758760452271</v>
+        <v>0.9699934124946594</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9982609152793884</v>
+        <v>0.9061866402626038</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4136648774147034</v>
+        <v>0.999295711517334</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9988356232643127</v>
+        <v>0.9263821244239807</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9925838708877563</v>
+        <v>0.9981984496116638</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9995625615119934</v>
+        <v>0.9987323880195618</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9979935884475708</v>
+        <v>0.9991687536239624</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9759610891342163</v>
+        <v>0.9942469596862793</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9993997812271118</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9830135703086853</v>
+        <v>0.9991486072540283</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8310598134994507</v>
+        <v>0.9830132126808167</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.999767005443573</v>
+        <v>0.9989988207817078</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9997019171714783</v>
+        <v>0.9158450961112976</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9765031337738037</v>
+        <v>0.9347437024116516</v>
       </c>
     </row>
   </sheetData>
